--- a/02 Qt入门到精通专栏【常用开发控件详解】/01 布局 间隔(Layouts Spacers).xlsx
+++ b/02 Qt入门到精通专栏【常用开发控件详解】/01 布局 间隔(Layouts Spacers).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\MyQt\02 Qt入门到精通专栏【常用开发控件详解】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BD8BF-51C8-4F0E-A289-47953C44C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2F9FCA-E9BA-4FBF-A3FB-36CDDE76081A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1776" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>布局 间隔(Layouts Spacers)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,13 @@
   </si>
   <si>
     <t>Form layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而QMainWindow仅是一个窗口部件，不是继承自QWidget的部件对象。</t>
+  </si>
+  <si>
+    <t>在Qt中，布局对象只能与继承自QWidget的部件对象（widgets对象）关联，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +154,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -174,13 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -604,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,6 +701,16 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/02 Qt入门到精通专栏【常用开发控件详解】/01 布局 间隔(Layouts Spacers).xlsx
+++ b/02 Qt入门到精通专栏【常用开发控件详解】/01 布局 间隔(Layouts Spacers).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\MyQt\02 Qt入门到精通专栏【常用开发控件详解】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2F9FCA-E9BA-4FBF-A3FB-36CDDE76081A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B0332E-B865-40F8-9D06-5C8280388571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1776" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,6 +298,50 @@
         <a:xfrm>
           <a:off x="6126481" y="883920"/>
           <a:ext cx="3368040" cy="3455784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>267837</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBC45CD-958E-B11D-310B-E27DA6C9D3F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="220980" y="4427220"/>
+          <a:ext cx="6142857" cy="2514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
